--- a/Results/Stacking Models/all_results_stacking_models.xlsx
+++ b/Results/Stacking Models/all_results_stacking_models.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvirb\Desktop\Study\C\Project\New_Project\Final Model\Results\Stacking Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008DB9CE-EB7B-4621-9899-1F6D2D0A8E0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C05D94-CABB-4EEA-BA81-4F8FD799EB73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10786" activeTab="8" xr2:uid="{3C30FFF2-E60D-48C5-8A3F-16DB20D581A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10786" activeTab="2" xr2:uid="{3C30FFF2-E60D-48C5-8A3F-16DB20D581A7}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
     <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
-    <sheet name="גיליון4" sheetId="4" r:id="rId3"/>
-    <sheet name="גיליון5" sheetId="5" r:id="rId4"/>
-    <sheet name="גיליון6" sheetId="6" r:id="rId5"/>
-    <sheet name="גיליון7" sheetId="7" r:id="rId6"/>
-    <sheet name="גיליון8" sheetId="8" r:id="rId7"/>
-    <sheet name="גיליון3" sheetId="3" r:id="rId8"/>
-    <sheet name="גיליון9" sheetId="9" r:id="rId9"/>
+    <sheet name="גיליון11" sheetId="11" r:id="rId3"/>
+    <sheet name="גיליון4" sheetId="4" r:id="rId4"/>
+    <sheet name="גיליון5" sheetId="5" r:id="rId5"/>
+    <sheet name="גיליון10" sheetId="10" r:id="rId6"/>
+    <sheet name="גיליון6" sheetId="6" r:id="rId7"/>
+    <sheet name="גיליון7" sheetId="7" r:id="rId8"/>
+    <sheet name="גיליון8" sheetId="8" r:id="rId9"/>
+    <sheet name="גיליון3" sheetId="3" r:id="rId10"/>
+    <sheet name="גיליון9" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="153" r:id="rId10"/>
+    <pivotCache cacheId="10" r:id="rId12"/>
+    <pivotCache cacheId="22" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="32">
   <si>
     <t>Dataset</t>
   </si>
@@ -126,6 +129,12 @@
   </si>
   <si>
     <t>Stacking-XGBoost Meta</t>
+  </si>
+  <si>
+    <t>(ריק)</t>
+  </si>
+  <si>
+    <t>(הכל)</t>
   </si>
 </sst>
 </file>
@@ -2354,6 +2363,644 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
+    <c:name>[all_results_stacking_models.xlsx]גיליון10!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון10!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ממוצע של Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>גיליון10!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>FastText</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FastText + PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TFIDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TFIDF + PCA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Word2Vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Word2Vec + PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון10!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.65982770093149656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67070552528033611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69888880058273395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69443424311177693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66715252004923398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66950766722445665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AD7-45A8-95F4-821943727412}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון10!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ממוצע של Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>גיליון10!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>FastText</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FastText + PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TFIDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TFIDF + PCA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Word2Vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Word2Vec + PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון10!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.66151556296482783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66350855810686127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68436864071646353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68632099134006852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66370416363980733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66350280514016857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AD7-45A8-95F4-821943727412}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון10!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ממוצע של Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>גיליון10!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>FastText</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FastText + PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TFIDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TFIDF + PCA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Word2Vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Word2Vec + PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון10!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.66189892957953245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66633826335790491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68843801437045771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68847103565383772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66586336838632354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66641330598198156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AD7-45A8-95F4-821943727412}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון10!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ממוצע של F1-Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>גיליון10!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>FastText</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FastText + PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TFIDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TFIDF + PCA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Word2Vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Word2Vec + PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון10!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.65982671351000888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66631361518821297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6912632565712703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68986854244063123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66507073113731496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6661722056866044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9AD7-45A8-95F4-821943727412}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1081737760"/>
+        <c:axId val="892163904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1081737760"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892163904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="892163904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081737760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
     <c:name>[all_results_stacking_models.xlsx]גיליון6!PivotTable57</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
@@ -2782,7 +3429,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="he-IL"/>
@@ -3276,6 +3923,7 @@
         <c:axId val="1520708928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3427,7 +4075,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="he-IL"/>
@@ -4249,7 +4897,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="he-IL"/>
@@ -4895,7 +5543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="he-IL"/>
@@ -6097,6 +6745,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9619,6 +10307,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10249,6 +11440,47 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
+      <xdr:colOff>129397</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133711</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F7962A-746C-4B99-AAFF-2CBD09E28698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>25880</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>150961</xdr:rowOff>
@@ -10285,20 +11517,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1104182</xdr:colOff>
+      <xdr:colOff>1147312</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>150960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>146649</xdr:rowOff>
+      <xdr:rowOff>60385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10326,7 +11558,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10367,7 +11599,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10408,7 +11640,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10507,6 +11739,63 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dvir Burger" refreshedDate="45876.527757754629" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="77" xr:uid="{4F568D72-D5F1-4D42-88A1-6FD2CC72E902}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H1048576" sheet="גיליון1"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Dataset" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Emotions" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="NO"/>
+        <s v="YES"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="SVM + RF"/>
+        <s v="SVM + RF + LR"/>
+        <s v="SVM + XGBoost + LR"/>
+        <s v="Stacking-XGBoost Meta"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Configuration" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="TFIDF"/>
+        <s v="TFIDF + PCA"/>
+        <s v="Word2Vec"/>
+        <s v="Word2Vec + PCA"/>
+        <s v="FastText"/>
+        <s v="FastText + PCA"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Accuracy" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.56468423666512801" maxValue="0.84365558912386707"/>
+    </cacheField>
+    <cacheField name="Precision" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.56477735334903401" maxValue="0.84138972809667678"/>
+    </cacheField>
+    <cacheField name="Recall" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.55286343612334798" maxValue="0.85457271364317844"/>
+    </cacheField>
+    <cacheField name="F1-Score" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.56452168785259405" maxValue="0.84632516703786187"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="76">
   <r>
@@ -11272,8 +12561,783 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="77">
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.75373892761061512"/>
+    <n v="0.75390342851166403"/>
+    <n v="0.75373892761061512"/>
+    <n v="0.75370047255347872"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.75978126960248871"/>
+    <n v="0.75995406416449418"/>
+    <n v="0.75978126960248871"/>
+    <n v="0.75974273775698309"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.77428593024502523"/>
+    <n v="0.77454139630972174"/>
+    <n v="0.77428593024502523"/>
+    <n v="0.77423499531085616"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.76930041956942674"/>
+    <n v="0.76936723990202915"/>
+    <n v="0.76930041956942674"/>
+    <n v="0.7692858970529074"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.78138585667214799"/>
+    <n v="0.78140026404248564"/>
+    <n v="0.78138585667214799"/>
+    <n v="0.78138318997656908"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.77096234774844141"/>
+    <n v="0.77099184982647395"/>
+    <n v="0.77096234774844141"/>
+    <n v="0.7709556783805569"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.63447006635777337"/>
+    <n v="0.63501513347236305"/>
+    <n v="0.63447006635777337"/>
+    <n v="0.63411416827034695"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.62719808711196123"/>
+    <n v="0.62768381612537438"/>
+    <n v="0.62719808711196123"/>
+    <n v="0.62685353391914633"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.60918211839475012"/>
+    <n v="0.60957172312538921"/>
+    <n v="0.60918211839475012"/>
+    <n v="0.6088241993542729"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.6116785907707406"/>
+    <n v="0.61187560980368705"/>
+    <n v="0.6116785907707406"/>
+    <n v="0.61149767099576258"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.60679401163211411"/>
+    <n v="0.60713765154983423"/>
+    <n v="0.60679401163211411"/>
+    <n v="0.60647505263353374"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.61167869676905828"/>
+    <n v="0.61202288155378737"/>
+    <n v="0.61167869676905828"/>
+    <n v="0.61137693776522672"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.75770238737345297"/>
+    <n v="0.75806565841145501"/>
+    <n v="0.75770238737345297"/>
+    <n v="0.75761948738600504"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.74531618193875504"/>
+    <n v="0.746832126551497"/>
+    <n v="0.74531618193875504"/>
+    <n v="0.74492447691402397"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.68021171680590398"/>
+    <n v="0.68670083799804804"/>
+    <n v="0.68021171680590398"/>
+    <n v="0.67740250865181795"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.70951612379797002"/>
+    <n v="0.71260580837536702"/>
+    <n v="0.70951612379797002"/>
+    <n v="0.70844500534132204"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.63791532286278796"/>
+    <n v="0.63995112146237199"/>
+    <n v="0.63791532286278796"/>
+    <n v="0.63660065537487098"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.70392715942830297"/>
+    <n v="0.70626032730988497"/>
+    <n v="0.70392715942830297"/>
+    <n v="0.703087193344615"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.63447006635777303"/>
+    <n v="0.63501513347236305"/>
+    <n v="0.63447006635777303"/>
+    <n v="0.63411416827034695"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.62752367861083902"/>
+    <n v="0.628009840544964"/>
+    <n v="0.62752367861083902"/>
+    <n v="0.62718339561271297"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.61091893616131199"/>
+    <n v="0.61132531801800005"/>
+    <n v="0.61091893616131199"/>
+    <n v="0.610538338135586"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.61710506864168302"/>
+    <n v="0.61734325041364502"/>
+    <n v="0.61710506864168302"/>
+    <n v="0.61691005176777403"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.60625211289979697"/>
+    <n v="0.60664949792494305"/>
+    <n v="0.60625211289979697"/>
+    <n v="0.605861795109774"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.61471749187063496"/>
+    <n v="0.61517338989932802"/>
+    <n v="0.61471749187063496"/>
+    <n v="0.614337371256237"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.76737209266978301"/>
+    <n v="0.75793640660031703"/>
+    <n v="0.78579937894455598"/>
+    <n v="0.771572966085738"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.74607224492305302"/>
+    <n v="0.72650279179488098"/>
+    <n v="0.78942037745104399"/>
+    <n v="0.75657134947843796"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.67824621321510103"/>
+    <n v="0.66542829568894701"/>
+    <n v="0.71660732039540798"/>
+    <n v="0.68999430572013598"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.69214344917261605"/>
+    <n v="0.67737246877886403"/>
+    <n v="0.73413582193490701"/>
+    <n v="0.70456514159252803"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.66359517363021003"/>
+    <n v="0.64523233780687606"/>
+    <n v="0.72719110375304896"/>
+    <n v="0.68367366546682296"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0.68685806021473705"/>
+    <n v="0.66349637624691205"/>
+    <n v="0.75860767296919596"/>
+    <n v="0.70782652549519698"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.63859403690211203"/>
+    <n v="0.63294566956949705"/>
+    <n v="0.66051619616359003"/>
+    <n v="0.64638702269965898"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.62925950705976996"/>
+    <n v="0.62651811981176297"/>
+    <n v="0.64032824941187105"/>
+    <n v="0.63328391053091204"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.61005006795198802"/>
+    <n v="0.61122907263005899"/>
+    <n v="0.60473302343467195"/>
+    <n v="0.60796078882860705"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.60787939907151101"/>
+    <n v="0.608936028338527"/>
+    <n v="0.60299747783206603"/>
+    <n v="0.60593752410506896"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.61178639105973398"/>
+    <n v="0.62173512581938595"/>
+    <n v="0.57217245747376"/>
+    <n v="0.59580464615453199"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0.612111417234252"/>
+    <n v="0.62068103710699496"/>
+    <n v="0.57716490793521502"/>
+    <n v="0.59807723215905395"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.75860969034075598"/>
+    <n v="0.75899929059937099"/>
+    <n v="0.75860969034075598"/>
+    <n v="0.75852021200933695"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.63034478850084996"/>
+    <n v="0.63048973018618604"/>
+    <n v="0.63034478850084996"/>
+    <n v="0.63023185593338404"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.75981873111782472"/>
+    <n v="0.75253256150506509"/>
+    <n v="0.77961019490254868"/>
+    <n v="0.76583210603829166"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.83006042296072513"/>
+    <n v="0.84104938271604934"/>
+    <n v="0.81709145427286356"/>
+    <n v="0.82889733840304181"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.84365558912386707"/>
+    <n v="0.83823529411764708"/>
+    <n v="0.85457271364317844"/>
+    <n v="0.84632516703786187"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.8368580060422961"/>
+    <n v="0.8282387190684134"/>
+    <n v="0.85307346326836586"/>
+    <n v="0.8404726735598228"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.83761329305135956"/>
+    <n v="0.84138972809667678"/>
+    <n v="0.83508245877061471"/>
+    <n v="0.83822422874341607"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="0.8368580060422961"/>
+    <n v="0.83210603829160534"/>
+    <n v="0.84707646176911544"/>
+    <n v="0.83952451708766718"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.61530113944655451"/>
+    <n v="0.60353798126951097"/>
+    <n v="0.63876651982378851"/>
+    <n v="0.62065275548421617"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.6060770482908302"/>
+    <n v="0.59784946236559144"/>
+    <n v="0.61233480176211452"/>
+    <n v="0.60500544069640916"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.58871405317417258"/>
+    <n v="0.58741258741258739"/>
+    <n v="0.55506607929515417"/>
+    <n v="0.57078142695356737"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.59685295713510578"/>
+    <n v="0.59515570934256057"/>
+    <n v="0.56828193832599116"/>
+    <n v="0.58140845070422531"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.5908844275637547"/>
+    <n v="0.59058823529411764"/>
+    <n v="0.55286343612334798"/>
+    <n v="0.57110352673492604"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="0.59468258274552366"/>
+    <n v="0.58974358974358976"/>
+    <n v="0.58259911894273131"/>
+    <n v="0.58614958448753463"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.75860969034075598"/>
+    <n v="0.75899929059937099"/>
+    <n v="0.75860969034075598"/>
+    <n v="0.75852021200933695"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.63034478850084996"/>
+    <n v="0.63048973018618604"/>
+    <n v="0.63034478850084996"/>
+    <n v="0.63023185593338404"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.73217494050017695"/>
+    <n v="0.73287121874362604"/>
+    <n v="0.73217494050017695"/>
+    <n v="0.73197654291729797"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.71359576927885204"/>
+    <n v="0.715080181019915"/>
+    <n v="0.71359576927885204"/>
+    <n v="0.71308878507676199"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.65135897580201296"/>
+    <n v="0.65174893903467401"/>
+    <n v="0.65135897580201296"/>
+    <n v="0.65111941524915995"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.64984719216022302"/>
+    <n v="0.65022084035873695"/>
+    <n v="0.64984719216022302"/>
+    <n v="0.649641885436128"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.628247192269767"/>
+    <n v="0.62970071691083995"/>
+    <n v="0.628247192269767"/>
+    <n v="0.62714307837704897"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.65287075944380302"/>
+    <n v="0.65424933873649305"/>
+    <n v="0.65287075944380302"/>
+    <n v="0.65207675827787404"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.60603418035882195"/>
+    <n v="0.60620672605966497"/>
+    <n v="0.60603418035882195"/>
+    <n v="0.60587001852113398"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.59572393600302098"/>
+    <n v="0.59593011272247998"/>
+    <n v="0.59572393600302098"/>
+    <n v="0.595505243663357"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.57141399918367097"/>
+    <n v="0.57146600079943299"/>
+    <n v="0.57141399918367097"/>
+    <n v="0.57132555064405799"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.56674643393393298"/>
+    <n v="0.56685582552852998"/>
+    <n v="0.56674643393393298"/>
+    <n v="0.56656840204639203"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.57488509075717198"/>
+    <n v="0.57494044419840595"/>
+    <n v="0.57488509075717198"/>
+    <n v="0.57480631999322296"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.56468423666512801"/>
+    <n v="0.56477735334903401"/>
+    <n v="0.56468423666512801"/>
+    <n v="0.56452168785259405"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.73051301232116295"/>
+    <n v="0.73112856057111097"/>
+    <n v="0.73051301232116295"/>
+    <n v="0.73033423624053195"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.70709991273405004"/>
+    <n v="0.70768385627843799"/>
+    <n v="0.70709991273405004"/>
+    <n v="0.70688597474985804"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.65452885356258805"/>
+    <n v="0.65512186552311402"/>
+    <n v="0.65452885356258805"/>
+    <n v="0.65424699765578298"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.65543759430247694"/>
+    <n v="0.65595719125069896"/>
+    <n v="0.65543759430247694"/>
+    <n v="0.65514190752482304"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.65060407672885601"/>
+    <n v="0.65202160532429598"/>
+    <n v="0.65060407672885601"/>
+    <n v="0.64979020137149002"/>
+  </r>
+  <r>
+    <s v="FakeNewsNet"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.65921407516373798"/>
+    <n v="0.66037558779104699"/>
+    <n v="0.65921407516373798"/>
+    <n v="0.65859071845748596"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.59355323178977104"/>
+    <n v="0.59371935544773602"/>
+    <n v="0.59355323178977104"/>
+    <n v="0.59336912178450896"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.587692196149462"/>
+    <n v="0.587910544526975"/>
+    <n v="0.587692196149462"/>
+    <n v="0.587417289189334"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.56891643149173199"/>
+    <n v="0.569083329024337"/>
+    <n v="0.56891643149173199"/>
+    <n v="0.56866759310149595"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.57824951269040104"/>
+    <n v="0.578470075285895"/>
+    <n v="0.57824951269040104"/>
+    <n v="0.577965152814093"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.57759917767918501"/>
+    <n v="0.57762399790417596"/>
+    <n v="0.57759917767918501"/>
+    <n v="0.57755960507953796"/>
+  </r>
+  <r>
+    <s v="PolitiFact"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.57032808175268601"/>
+    <n v="0.57039342033572404"/>
+    <n v="0.57032808175268601"/>
+    <n v="0.57021540993058695"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2AD807-BFCE-4DE1-B6F7-AAE2558943D2}" name="PivotTable53" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2AD807-BFCE-4DE1-B6F7-AAE2558943D2}" name="PivotTable53" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
@@ -11434,994 +13498,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A8589475-7193-4496-8BD6-D1B05D1E142E}" name="PivotTable55" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A5:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" m="1" x="4"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" item="0" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="ממוצע של Recall" fld="6" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="ממוצע של Precision" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="ממוצע של Accuracy" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="20" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67160CC7-C8B1-4AAD-8F20-5339F66CF7BC}" name="PivotTable56" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A5:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="2" item="1" hier="-1"/>
-    <pageField fld="0" item="0" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="ממוצע של Recall" fld="6" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="ממוצע של Precision" fld="5" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="ממוצע של Accuracy" fld="4" subtotal="average" baseField="0" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94962F93-2365-4A54-A3DB-394F305C4852}" name="PivotTable57" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A4:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="2" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC303093-57BA-4928-A58A-F13F57B2352E}" name="PivotTable58" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="2" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA2BAC16-0673-4862-9EAD-9D5CB122D32F}" name="PivotTable65" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A4:F20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="2" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02656442-A9F9-4F5C-8238-5E97D94565EC}" name="PivotTable54" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38BE789E-D377-4AE5-957A-7CD8775B3D79}" name="PivotTable66" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38BE789E-D377-4AE5-957A-7CD8775B3D79}" name="PivotTable66" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A4:E19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -12623,6 +13701,1235 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAB79661-B498-49D8-8CBB-E54B6F8DE6E4}" name="PivotTable4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:I8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A8589475-7193-4496-8BD6-D1B05D1E142E}" name="PivotTable55" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A5:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" m="1" x="4"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" item="0" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="ממוצע של Recall" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="ממוצע של Precision" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="ממוצע של Accuracy" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67160CC7-C8B1-4AAD-8F20-5339F66CF7BC}" name="PivotTable56" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="2" item="1" hier="-1"/>
+    <pageField fld="0" item="0" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="ממוצע של Recall" fld="6" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="ממוצע של Precision" fld="5" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="ממוצע של Accuracy" fld="4" subtotal="average" baseField="0" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA0B1B5E-894F-4340-9EF9-816998F469B4}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="ממוצע של Recall" fld="6" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="ממוצע של Precision" fld="5" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="ממוצע של Accuracy" fld="4" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="0" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94962F93-2365-4A54-A3DB-394F305C4852}" name="PivotTable57" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC303093-57BA-4928-A58A-F13F57B2352E}" name="PivotTable58" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA2BAC16-0673-4862-9EAD-9D5CB122D32F}" name="PivotTable65" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:F20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="2" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02656442-A9F9-4F5C-8238-5E97D94565EC}" name="PivotTable54" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="ממוצע של F1-Score" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -12939,7 +15246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510127BD-9C2C-473A-AB0B-3EB6A7336EF2}">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C77" sqref="C54:C77"/>
     </sheetView>
   </sheetViews>
@@ -14975,6 +17282,517 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB33CA43-004B-4CB2-A0D1-E3499F37E9FE}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.75565997996974188</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.76504658904753753</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.7621761590238143</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.7311553895789149</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.75350952940500227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.75370047255347872</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.771572966085738</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.76583210603829166</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.73197654291729797</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.75577052189870164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.75761948738600504</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.75852021200933695</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.75852021200933695</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.73033423624053195</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.75124853691130278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.63411416827034695</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.63830943931652151</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.62544230570880011</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.59961957015282152</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.62437137086212247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.63411416827034695</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.64638702269965898</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.62065275548421617</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.60587001852113398</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.62675599124383896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.63411416827034695</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.63023185593338404</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.63023185593338404</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.59336912178450896</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.62198675048040597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.69488707412004436</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.70167801418202946</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.6938092323663072</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.6653874798658681</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.68894045013356242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C18CE0-26ED-451C-A00B-29CF4A164D1D}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.70467988783544244</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.70840264668477071</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.70576481536786206</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.70576481536786206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.63660065537487098</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.63995112146237199</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.63791532286278796</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.63791532286278796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.703087193344615</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.70626032730988497</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.70392715942830297</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.70392715942830297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.75761948738600504</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.75806565841145501</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.75770238737345297</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.75770238737345297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.74492447691402397</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.746832126551497</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.74531618193875504</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.74531618193875504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.67740250865181795</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.68670083799804804</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.68021171680590398</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.68021171680590398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.70844500534132204</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.71260580837536702</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.70951612379797002</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.70951612379797002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.61815752002540514</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.61891940504554044</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.61849789242367315</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.61849789242367315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.605861795109774</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.60664949792494305</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.60625211289979697</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.60625211289979697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.614337371256237</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.61517338989932802</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.61471749187063496</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.61471749187063496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.63411416827034695</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.63501513347236305</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.63447006635777303</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.63447006635777303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.62718339561271297</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.628009840544964</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.62752367861083902</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.62752367861083902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.610538338135586</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.61132531801800005</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.61091893616131199</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.61091893616131199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0.61691005176777403</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.61734325041364502</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.61710506864168302</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.61710506864168302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.6614187039304239</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.66366102586515574</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.66213135389576749</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.66213135389576749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15167,6 +17985,236 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB444AA2-BCAF-47BF-AEC1-8BC69F5A4D0B}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0.60732480120532495</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.61135114362963527</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.66538747986586833</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.65072432316982776</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.61133988916262427</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.61232933695535907</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25">
+        <v>0.62640949566477333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0.6575801732736869</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.67493929518665885</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.69488707412004436</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.68967603605071659</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.66775001036313331</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.67653465628944143</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25">
+        <v>0.67689454088061352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.63973915581067753</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.65295187882712546</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.70167801418202946</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.69492763000467495</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.64897754727437151</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.65525133284879855</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25">
+        <v>0.67074336758995823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.70466387773917105</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.71283705078760096</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.6938092323663072</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.71695138954972548</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.70855329699571468</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.71094056213202406</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25">
+        <v>0.70593780599097866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.64570216375131195</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.65639496787455232</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.68894045013356242</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.68211328966591489</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.65261844055360019</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.65731998024507055</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25">
+        <v>0.66516885930555791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C39665A-F29A-414D-BFBE-804793FF76F1}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -15365,12 +18413,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB3FECC-2B3F-42A1-8E09-06161D07E748}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
@@ -15547,7 +18595,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980C3FF2-50CC-424E-BF57-BFFE60275591}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.65982770093149656</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.66151556296482783</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.66189892957953245</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.65982671351000888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.67070552528033611</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.66350855810686127</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.66633826335790491</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.66631361518821297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.69888880058273395</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.68436864071646353</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.68843801437045771</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.6912632565712703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.69443424311177693</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.68632099134006852</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.68847103565383772</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.68986854244063123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.66715252004923398</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.66370416363980733</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.66586336838632354</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.66507073113731496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.66950766722445665</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.66350280514016857</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.66641330598198156</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.6661722056866044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.67675274286333897</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.67048678698469943</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.67290381955500622</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.6730858440890074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7DC552-200E-4386-A2F5-CB0F0A0699F6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -15704,7 +18926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FFF9EE-8670-4553-9B31-B4C41AC7F810}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -15904,7 +19126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CDC8D5-CEB6-4037-A095-78903B764FD1}">
   <dimension ref="A2:F20"/>
   <sheetViews>
@@ -16262,515 +19484,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB33CA43-004B-4CB2-A0D1-E3499F37E9FE}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="25">
-        <v>0.75565997996974188</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0.76504658904753753</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0.7621761590238143</v>
-      </c>
-      <c r="E5" s="25">
-        <v>0.7311553895789149</v>
-      </c>
-      <c r="F5" s="25">
-        <v>0.75350952940500227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="25">
-        <v>0.75370047255347872</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.771572966085738</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.76583210603829166</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0.73197654291729797</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0.75577052189870164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0.75761948738600504</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.75852021200933695</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0.75852021200933695</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0.73033423624053195</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0.75124853691130278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="25">
-        <v>0.63411416827034695</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.63830943931652151</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.62544230570880011</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0.59961957015282152</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0.62437137086212247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0.63411416827034695</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.64638702269965898</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.62065275548421617</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0.60587001852113398</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0.62675599124383896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="25">
-        <v>0.63411416827034695</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.63023185593338404</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.63023185593338404</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0.59336912178450896</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0.62198675048040597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0.69488707412004436</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.70167801418202946</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.6938092323663072</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0.6653874798658681</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0.68894045013356242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C18CE0-26ED-451C-A00B-29CF4A164D1D}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="25">
-        <v>0.70467988783544244</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0.70840264668477071</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0.70576481536786206</v>
-      </c>
-      <c r="E5" s="25">
-        <v>0.70576481536786206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="25">
-        <v>0.63660065537487098</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.63995112146237199</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.63791532286278796</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0.63791532286278796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0.703087193344615</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.70626032730988497</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0.70392715942830297</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0.70392715942830297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="25">
-        <v>0.75761948738600504</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.75806565841145501</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.75770238737345297</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0.75770238737345297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0.74492447691402397</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.746832126551497</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.74531618193875504</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0.74531618193875504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25">
-        <v>0.67740250865181795</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.68670083799804804</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.68021171680590398</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0.68021171680590398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0.70844500534132204</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.71260580837536702</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.70951612379797002</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0.70951612379797002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="25">
-        <v>0.61815752002540514</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0.61891940504554044</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0.61849789242367315</v>
-      </c>
-      <c r="E12" s="25">
-        <v>0.61849789242367315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0.605861795109774</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0.60664949792494305</v>
-      </c>
-      <c r="D13" s="25">
-        <v>0.60625211289979697</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0.60625211289979697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="25">
-        <v>0.614337371256237</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0.61517338989932802</v>
-      </c>
-      <c r="D14" s="25">
-        <v>0.61471749187063496</v>
-      </c>
-      <c r="E14" s="25">
-        <v>0.61471749187063496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="25">
-        <v>0.63411416827034695</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0.63501513347236305</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0.63447006635777303</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0.63447006635777303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25">
-        <v>0.62718339561271297</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0.628009840544964</v>
-      </c>
-      <c r="D16" s="25">
-        <v>0.62752367861083902</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0.62752367861083902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25">
-        <v>0.610538338135586</v>
-      </c>
-      <c r="C17" s="25">
-        <v>0.61132531801800005</v>
-      </c>
-      <c r="D17" s="25">
-        <v>0.61091893616131199</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0.61091893616131199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="25">
-        <v>0.61691005176777403</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0.61734325041364502</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0.61710506864168302</v>
-      </c>
-      <c r="E18" s="25">
-        <v>0.61710506864168302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="25">
-        <v>0.6614187039304239</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0.66366102586515574</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0.66213135389576749</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0.66213135389576749</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>